--- a/X方向地震作用下的楼层最大位移.xlsx
+++ b/X方向地震作用下的楼层最大位移.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
   <si>
     <t>Floor</t>
   </si>
@@ -52,235 +52,838 @@
     <t>Ratio_AX</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31000086</t>
+  </si>
+  <si>
+    <t>66.02</t>
+  </si>
+  <si>
+    <t>60.57</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>31000083</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1/1770</t>
+  </si>
+  <si>
+    <t>4.98%</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30000086</t>
+  </si>
+  <si>
+    <t>64.37</t>
+  </si>
+  <si>
+    <t>59.04</t>
+  </si>
+  <si>
+    <t>30000431</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>1/1684</t>
+  </si>
+  <si>
+    <t>5.08%</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>29000083</t>
+  </si>
+  <si>
+    <t>62.66</t>
+  </si>
+  <si>
+    <t>57.45</t>
+  </si>
+  <si>
+    <t>29000431</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1/1602</t>
+  </si>
+  <si>
+    <t>5.24%</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>28000086</t>
+  </si>
+  <si>
+    <t>60.88</t>
+  </si>
+  <si>
+    <t>55.79</t>
+  </si>
+  <si>
+    <t>28000083</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>1/1521</t>
+  </si>
+  <si>
+    <t>4.91%</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>27000083</t>
+  </si>
+  <si>
+    <t>59.02</t>
+  </si>
+  <si>
+    <t>54.06</t>
+  </si>
+  <si>
+    <t>27000086</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1/1449</t>
+  </si>
+  <si>
+    <t>4.42%</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>26000083</t>
+  </si>
+  <si>
+    <t>57.08</t>
+  </si>
+  <si>
+    <t>52.25</t>
+  </si>
+  <si>
+    <t>26000519</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1/1387</t>
+  </si>
+  <si>
+    <t>3.86%</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>25000083</t>
+  </si>
+  <si>
+    <t>55.05</t>
+  </si>
+  <si>
+    <t>50.37</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>1/1334</t>
+  </si>
+  <si>
+    <t>3.30%</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>24000083</t>
+  </si>
+  <si>
+    <t>52.94</t>
+  </si>
+  <si>
+    <t>48.42</t>
+  </si>
+  <si>
+    <t>24000431</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>1/1291</t>
+  </si>
+  <si>
+    <t>2.77%</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>23000086</t>
+  </si>
+  <si>
+    <t>50.75</t>
+  </si>
+  <si>
+    <t>46.39</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>1/1255</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>22000083</t>
+  </si>
+  <si>
+    <t>48.49</t>
+  </si>
+  <si>
+    <t>44.31</t>
+  </si>
+  <si>
+    <t>22000431</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>1/1226</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>21000083</t>
+  </si>
+  <si>
+    <t>46.17</t>
+  </si>
+  <si>
+    <t>42.16</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>1/1203</t>
+  </si>
+  <si>
+    <t>1.40%</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20000086</t>
+  </si>
+  <si>
+    <t>43.78</t>
+  </si>
+  <si>
+    <t>39.96</t>
+  </si>
+  <si>
+    <t>20000431</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>1/1185</t>
+  </si>
+  <si>
+    <t>0.80%</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>19000083</t>
+  </si>
+  <si>
+    <t>41.34</t>
+  </si>
+  <si>
+    <t>37.71</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>1/1174</t>
+  </si>
+  <si>
+    <t>0.81%</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>18000086</t>
+  </si>
+  <si>
+    <t>38.85</t>
+  </si>
+  <si>
+    <t>35.42</t>
+  </si>
+  <si>
+    <t>18000431</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>1/1164</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>17000086</t>
+  </si>
+  <si>
+    <t>36.32</t>
+  </si>
+  <si>
+    <t>33.10</t>
+  </si>
+  <si>
+    <t>17000490</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>1/1156</t>
+  </si>
+  <si>
+    <t>0.35%</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>16000083</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>30.75</t>
+  </si>
+  <si>
+    <t>16000431</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1/1151</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>15000083</t>
+  </si>
+  <si>
+    <t>31.15</t>
+  </si>
+  <si>
+    <t>28.36</t>
+  </si>
+  <si>
+    <t>15000431</t>
+  </si>
+  <si>
+    <t>1/1149</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>14000083</t>
+  </si>
+  <si>
+    <t>28.52</t>
+  </si>
+  <si>
+    <t>25.96</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>1/1152</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13000086</t>
+  </si>
+  <si>
+    <t>25.88</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>13000431</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12000083</t>
+  </si>
+  <si>
+    <t>23.23</t>
+  </si>
+  <si>
+    <t>21.14</t>
+  </si>
+  <si>
+    <t>12000086</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>1/1165</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11000083</t>
+  </si>
+  <si>
+    <t>20.59</t>
+  </si>
+  <si>
+    <t>18.73</t>
+  </si>
+  <si>
+    <t>11000431</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>1/1179</t>
+  </si>
+  <si>
+    <t>2.11%</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10000083</t>
+  </si>
+  <si>
+    <t>17.96</t>
+  </si>
+  <si>
+    <t>16.34</t>
+  </si>
+  <si>
+    <t>10000086</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>1/1204</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9000086</t>
+  </si>
+  <si>
+    <t>15.38</t>
+  </si>
+  <si>
+    <t>13.99</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>1/1236</t>
+  </si>
+  <si>
+    <t>3.75%</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8000089</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>2950</t>
-  </si>
-  <si>
-    <t>8000071</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>8000086</t>
+  </si>
+  <si>
+    <t>12.85</t>
+  </si>
+  <si>
+    <t>11.70</t>
+  </si>
+  <si>
+    <t>8000492</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>1/1284</t>
+  </si>
+  <si>
+    <t>5.32%</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7000083</t>
+  </si>
+  <si>
+    <t>10.42</t>
+  </si>
+  <si>
+    <t>9.49</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>1/1356</t>
+  </si>
+  <si>
+    <t>7.77%</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6000086</t>
+  </si>
+  <si>
+    <t>8.11</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1/1471</t>
+  </si>
+  <si>
+    <t>11.72%</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5000083</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>5000086</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>1/1669</t>
+  </si>
+  <si>
+    <t>21.78%</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4000083</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>4000492</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1/2133</t>
+  </si>
+  <si>
+    <t>27.20%</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3000088</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3000101</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>1/2786</t>
+  </si>
+  <si>
+    <t>7.45%</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2000031</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>1/2752</t>
+  </si>
+  <si>
+    <t>46.74%</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1000052</t>
+  </si>
+  <si>
+    <t>0.52</t>
   </si>
   <si>
     <t>0.48</t>
   </si>
   <si>
-    <t>1/6014</t>
-  </si>
-  <si>
-    <t>13.11%</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7000181</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>7000001</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>1/5302</t>
-  </si>
-  <si>
-    <t>15.27%</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6000001</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>6000181</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>1/4605</t>
-  </si>
-  <si>
-    <t>8.56%</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5000001</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>1/4249</t>
-  </si>
-  <si>
-    <t>2.23%</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4000001</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>4000181</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>1/4161</t>
-  </si>
-  <si>
-    <t>7.16%</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3000181</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>3000001</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1/4476</t>
-  </si>
-  <si>
-    <t>31.01%</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2000001</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>2000100</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>1/6409</t>
-  </si>
-  <si>
-    <t>92.36%</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>1000181</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>5100</t>
-  </si>
-  <si>
-    <t>1/9999</t>
+    <t>1/6004</t>
   </si>
   <si>
     <t>100.00%</t>
+  </si>
+  <si>
+    <t>0.41</t>
   </si>
 </sst>
 </file>
@@ -647,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,39 +1438,39 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -875,22 +1478,22 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -955,62 +1558,982 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
